--- a/data/trans_camb/P3A_R1-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R1-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>4.383347357726675</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>4.539544706431053</v>
+        <v>4.539544706431043</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.580585646794923</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.47915043033988</v>
+        <v>1.342670663921039</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.784081172386115</v>
+        <v>4.843821522568709</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.593519693110793</v>
+        <v>5.05150525907754</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.216352547968002</v>
+        <v>-4.976273517646775</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.579006410666664</v>
+        <v>-2.759464033881637</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.722209153524053</v>
+        <v>-2.342973970241677</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9194456402112408</v>
+        <v>0.4598467588653375</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.959380409154484</v>
+        <v>3.828169146330288</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.673351575340486</v>
+        <v>3.930917583490942</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.512754323709</v>
+        <v>14.38620567568164</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.54697889932207</v>
+        <v>18.43947362476233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.74128788492116</v>
+        <v>16.63706186645443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.462037387044639</v>
+        <v>10.04195429452102</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.70307370791058</v>
+        <v>11.93117178089827</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.96013395032256</v>
+        <v>10.69135600440832</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.35282311545884</v>
+        <v>10.33861308583624</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.38999451214719</v>
+        <v>13.72234371551901</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>12.42943139805119</v>
+        <v>12.07959816584515</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.1553266204209945</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.160861569927153</v>
+        <v>0.1608615699271526</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1987953172483651</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04810760342633929</v>
+        <v>0.02234686949039202</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1813759913737404</v>
+        <v>0.1558660680662869</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1446349032844939</v>
+        <v>0.1497106201689097</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1616717915799682</v>
+        <v>-0.1609380325239239</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08081903341996033</v>
+        <v>-0.08323162324950643</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05459055569046152</v>
+        <v>-0.0679780670875292</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03296360149086553</v>
+        <v>0.010960974185871</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1305044658501201</v>
+        <v>0.1235761585387061</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1194143131013832</v>
+        <v>0.1254861181878341</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5809240081767258</v>
+        <v>0.5631138239654295</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.74179433969004</v>
+        <v>0.7361335009691792</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6825304865680212</v>
+        <v>0.6627754419944686</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3779237283011741</v>
+        <v>0.3977060994055449</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4731204483919048</v>
+        <v>0.5038251500157938</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4418110436944101</v>
+        <v>0.4479454470669129</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3989300226883687</v>
+        <v>0.3899716875531601</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5138855629136995</v>
+        <v>0.5342289121969739</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.4884479066179003</v>
+        <v>0.4733805030520501</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>19.86524551371335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.155723697485633</v>
+        <v>7.155723697485622</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5166928044813307</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.884729391729588</v>
+        <v>1.532614761270217</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12.53051552180822</v>
+        <v>12.37240406909479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03795400247985672</v>
+        <v>0.8711150545189027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.931115123780489</v>
+        <v>-5.869892244223314</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.161191219313212</v>
+        <v>2.953124930801837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.607209496736888</v>
+        <v>-1.111302190735031</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.688564990105615</v>
+        <v>0.481414338662199</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.01049160602581</v>
+        <v>10.30173572089337</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.302811681104579</v>
+        <v>1.44127051691218</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.60349824767984</v>
+        <v>15.2008293551253</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.11612246637401</v>
+        <v>26.46844702923361</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.05261324671487</v>
+        <v>13.73530805113113</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.100953269097589</v>
+        <v>6.856236565650777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>16.67711163410937</v>
+        <v>16.11765907254658</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.658982162524401</v>
+        <v>10.60527648577271</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.19841558965646</v>
+        <v>9.97035098940267</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>19.73378965922174</v>
+        <v>20.06423801110371</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.34722887892833</v>
+        <v>10.16904104376224</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.7145159634051443</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2573780831472962</v>
+        <v>0.2573780831472958</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02236690509276454</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05497784059652512</v>
+        <v>0.04841872476757806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.389108872357236</v>
+        <v>0.3879830118651183</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.004500855531417651</v>
+        <v>0.02793455818263425</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2304854335736983</v>
+        <v>-0.2212616000445245</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1176628702863717</v>
+        <v>0.1071770352857015</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05893276518609224</v>
+        <v>-0.04121618274856896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02506812750654712</v>
+        <v>0.01669628899270995</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3618770071601544</v>
+        <v>0.3691437044485483</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.04633204846261292</v>
+        <v>0.0511197658709947</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.6313991659731631</v>
+        <v>0.6294146430424467</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.120289927419142</v>
+        <v>1.065875506191839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5491916470302869</v>
+        <v>0.5635054167482002</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3546390103941186</v>
+        <v>0.3352963809258448</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.8514411220315681</v>
+        <v>0.8286369235091302</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4776265767095956</v>
+        <v>0.5646180048045664</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4408244479540614</v>
+        <v>0.4247664876856744</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8680121749065646</v>
+        <v>0.8808111635665563</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4571012923984608</v>
+        <v>0.4388742701679175</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>13.27470083801429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.953434175052589</v>
+        <v>6.953434175052584</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.603090035233142</v>
@@ -1083,7 +1083,7 @@
         <v>15.10461561635546</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>11.80667576419233</v>
+        <v>11.80667576419232</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.42572075136415</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.705339135645771</v>
+        <v>1.58869927773612</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.37877729897702</v>
+        <v>7.539235622457761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.341224713476456</v>
+        <v>1.080624120018951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7360450387897119</v>
+        <v>0.7736312097452801</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>6.583743416784002</v>
+        <v>7.058744579827446</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.93140644076233</v>
+        <v>4.708210465298444</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.904252324834378</v>
+        <v>1.833098120074667</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>8.280576215824965</v>
+        <v>8.716382953381318</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.507205451951595</v>
+        <v>2.95291761619237</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.358744954499</v>
+        <v>12.27723080902103</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.91967113083252</v>
+        <v>18.99093799126032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.20981527318322</v>
+        <v>12.53816958902403</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.36416225836442</v>
+        <v>14.65362575088133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>24.131010137129</v>
+        <v>24.08508621630829</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.97492526720915</v>
+        <v>18.84477306573439</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.60587726860757</v>
+        <v>10.96955362394239</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.2751992424631</v>
+        <v>18.38329941941114</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>12.2724102277223</v>
+        <v>12.16678239938352</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5378681784617978</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2817412625284447</v>
+        <v>0.2817412625284444</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6262207875003791</v>
@@ -1188,7 +1188,7 @@
         <v>1.24407632190753</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9724448560456174</v>
+        <v>0.9724448560456169</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2958733736960084</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06317490116133684</v>
+        <v>0.05891298098159701</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2623829892029851</v>
+        <v>0.2790356631357733</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.04465802696485138</v>
+        <v>0.03602467988137496</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02397156349154367</v>
+        <v>0.01931237046895432</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4158261323394931</v>
+        <v>0.4094447651012263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2649449012869152</v>
+        <v>0.269972818939565</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0795846122075147</v>
+        <v>0.07644406198777912</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3331272357579173</v>
+        <v>0.358974962748065</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.09651684520119483</v>
+        <v>0.1097199293784706</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5664257049755962</v>
+        <v>0.5672293931683419</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8492507173103413</v>
+        <v>0.8691510596647321</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6019442873130767</v>
+        <v>0.5516234294243557</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.689550357779858</v>
+        <v>1.695438846380486</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.872960636407994</v>
+        <v>2.822015727257425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.14937493839875</v>
+        <v>2.208818817713345</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5556122215455622</v>
+        <v>0.5661975110747272</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9330584286965646</v>
+        <v>0.9520269616601263</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.6176093915947384</v>
+        <v>0.6097175516082745</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>7.46395191796193</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.39634633814226</v>
+        <v>13.39634633814225</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>5.750441801198947</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.618501984609906</v>
+        <v>2.679620598952084</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.93744053304703</v>
+        <v>10.76604288135173</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.751793466843376</v>
+        <v>5.602544224480617</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.350332872559605</v>
+        <v>1.72685644496424</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.632208713813866</v>
+        <v>3.610111112778997</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.245818222036672</v>
+        <v>9.818737669960473</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.247135958167912</v>
+        <v>2.997999524287766</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>8.43988893704112</v>
+        <v>8.744758361883049</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.879547976305451</v>
+        <v>7.868246287691738</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.670155873735583</v>
+        <v>9.633704139674187</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.2695491684028</v>
+        <v>18.20792169663774</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.89602875575492</v>
+        <v>13.143753263786</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.896531224457952</v>
+        <v>9.143277972997748</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.29073179278405</v>
+        <v>11.41948429485898</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.84542781711008</v>
+        <v>16.87962455282642</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.348316689024871</v>
+        <v>8.209334753729552</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.93702123311187</v>
+        <v>14.00168405161858</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.3968854194202</v>
+        <v>13.27512007241346</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.634096930418137</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5995786721357756</v>
+        <v>0.599578672135776</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1251063315363947</v>
+        <v>0.1165580274410321</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4993779923935176</v>
+        <v>0.478615791569216</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2512212617031497</v>
+        <v>0.2541628737039777</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.07836028002329279</v>
+        <v>0.115233853491196</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2224547433120263</v>
+        <v>0.2444291027206837</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5995461986481866</v>
+        <v>0.6258243313086735</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1730280580621396</v>
+        <v>0.1563573932979126</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4360182186537454</v>
+        <v>0.4583019488673943</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4106671847513971</v>
+        <v>0.4109013580838199</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5214716008435148</v>
+        <v>0.50451593888705</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9746481553268885</v>
+        <v>0.974446989051005</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6738811401891427</v>
+        <v>0.7029288475026574</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7689610266932033</v>
+        <v>0.8111608309428444</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.002057282031053</v>
+        <v>0.9989846609455995</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.467054408829321</v>
+        <v>1.508764412133988</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5064656067363116</v>
+        <v>0.4907557360865039</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8448238766582098</v>
+        <v>0.8460002188995817</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8082392606348981</v>
+        <v>0.799152827759521</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>6.158971376694203</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.980505065904461</v>
+        <v>4.980505065904459</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.120932711462913</v>
@@ -1520,7 +1520,7 @@
         <v>6.511514243835173</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.869698936539388</v>
+        <v>8.869698936539386</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.906331844368799</v>
+        <v>1.27199089726832</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5117056248107216</v>
+        <v>0.7495137253816383</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.9116585738256948</v>
+        <v>-0.7474025432264281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.5259338220921773</v>
+        <v>-0.1489983421211912</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.782083916507505</v>
+        <v>1.89551050568485</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.031146219878702</v>
+        <v>7.85739746568272</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.579899395959089</v>
+        <v>1.798163041630032</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.716588683288576</v>
+        <v>3.243708987989431</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.018175433633822</v>
+        <v>5.772926202496969</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.2756037820357</v>
+        <v>12.17502366434789</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.42528746312434</v>
+        <v>11.58402208011124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.49030948373865</v>
+        <v>10.69143100621561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.305749873211078</v>
+        <v>6.415668249491903</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.55790123137866</v>
+        <v>8.87318947568648</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.99259211743785</v>
+        <v>14.02883855295834</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>7.666978309007372</v>
+        <v>7.884155698491615</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.450937910014037</v>
+        <v>9.291209266751522</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>11.76871842346129</v>
+        <v>11.75951089542176</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.3646335969959656</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2948640878425601</v>
+        <v>0.2948640878425599</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.400694066525733</v>
@@ -1625,7 +1625,7 @@
         <v>0.5783049798589521</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.7877416638851202</v>
+        <v>0.78774166388512</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.03673971403905901</v>
+        <v>0.06386551149853455</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02322585662013531</v>
+        <v>0.03271770147399136</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.04583184050208422</v>
+        <v>-0.03604729942693027</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08390165680796015</v>
+        <v>-0.02802588399141657</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1860547735809485</v>
+        <v>0.1814817082204567</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7932534560860305</v>
+        <v>0.786642600537544</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1256868291586565</v>
+        <v>0.1293985595084573</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2899856533745686</v>
+        <v>0.2512443846079428</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4561840109422187</v>
+        <v>0.4271939996831772</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8613402450621097</v>
+        <v>0.9120934558423632</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.8484928014230798</v>
+        <v>0.8655990127972918</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7813624908969599</v>
+        <v>0.7775627319945339</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.9792691425012453</v>
+        <v>1.055486955570593</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.380801849917511</v>
+        <v>1.41940177151243</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.305605474457556</v>
+        <v>2.351188239866753</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7686935193975969</v>
+        <v>0.7831684165225252</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9799922770150052</v>
+        <v>0.9365510663763491</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.195179870709653</v>
+        <v>1.220827784610747</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.812098499136209</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>2.519117453307498</v>
+        <v>2.5191174533075</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.6017784110880984</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.945441029010044</v>
+        <v>-2.376524237133589</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.06386120228811</v>
+        <v>-1.214840050767466</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.004617863889826962</v>
+        <v>-0.06887194552770601</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.05999312286427</v>
+        <v>-1.114457559676084</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1.509341090277278</v>
+        <v>1.642496545174523</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.5736303471929163</v>
+        <v>0.3493061623362955</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-1.052642976012093</v>
+        <v>-1.073670315976279</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.193004513889217</v>
+        <v>1.435481464221616</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.5457381327087415</v>
+        <v>0.4093401665240005</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.7703823349134087</v>
+        <v>0.7567165502467528</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.795180244046805</v>
+        <v>2.482677402761134</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5.767720655417667</v>
+        <v>5.685544968506955</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.825189778173825</v>
+        <v>2.937179507502996</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.91796286618243</v>
+        <v>5.918114105345215</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>5.008115061321115</v>
+        <v>4.649457935352907</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.503085198628238</v>
+        <v>2.274529588630659</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.873008431945574</v>
+        <v>4.886063901510156</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.367751676621407</v>
+        <v>4.160037068561176</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.6427365630500761</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4247342754194846</v>
+        <v>0.4247342754194848</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1219580325456386</v>
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.1594026865857796</v>
+        <v>-0.1720031617440635</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1997137738225541</v>
+        <v>0.2355143504340018</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08568267931630304</v>
+        <v>0.04765882396628927</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1786690026458329</v>
+        <v>-0.1847167984165021</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2080461470978692</v>
+        <v>0.251600060093204</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.08178099464789983</v>
+        <v>0.07746776512707435</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.5569522990432829</v>
+        <v>0.6132264260146122</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1.168098610328861</v>
+        <v>1.163137919084213</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.029845658620907</v>
+        <v>0.9186874408007432</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5918360858700585</v>
+        <v>0.5307103002968417</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.186879755748039</v>
+        <v>1.158589777440749</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.018283460781959</v>
+        <v>0.9575518373390707</v>
       </c>
     </row>
     <row r="40">
@@ -1918,7 +1918,7 @@
         <v>11.61465029270305</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8.207506949378669</v>
+        <v>8.207506949378674</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.859773649279545</v>
@@ -1927,7 +1927,7 @@
         <v>6.548073155139924</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>9.412371612360912</v>
+        <v>9.412371612360914</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.694136107661073</v>
@@ -1936,7 +1936,7 @@
         <v>8.999559655164813</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>8.775384178909713</v>
+        <v>8.775384178909718</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4.519845350126771</v>
+        <v>4.407761203551257</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9.408358650595599</v>
+        <v>9.549756762496591</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.852213145063232</v>
+        <v>5.917835544399576</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.116109585601566</v>
+        <v>1.26311149062079</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>4.980961831122062</v>
+        <v>4.990767707337292</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>7.756522842461086</v>
+        <v>7.793639537900917</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>3.32180404149858</v>
+        <v>3.303290836535731</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>7.488667296545811</v>
+        <v>7.572654373713088</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>7.352697122653248</v>
+        <v>7.423508892041427</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.717732901007739</v>
+        <v>8.735359689490467</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>13.686910697875</v>
+        <v>13.7131934914098</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10.37122460821666</v>
+        <v>10.42075327808977</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.509922105305541</v>
+        <v>4.631999566615338</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.331519761620724</v>
+        <v>8.316926619571607</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.96337858999723</v>
+        <v>10.98228187743415</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.147454082733357</v>
+        <v>6.072677260173186</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>10.35297874248558</v>
+        <v>10.46747949996202</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>10.14520214619228</v>
+        <v>10.19443020508526</v>
       </c>
     </row>
     <row r="43">
@@ -2023,7 +2023,7 @@
         <v>0.5562462004460761</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3930720633573339</v>
+        <v>0.3930720633573341</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2384206988398796</v>
@@ -2032,7 +2032,7 @@
         <v>0.5459159951685071</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7847139294136386</v>
+        <v>0.7847139294136388</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2867909108220628</v>
@@ -2041,7 +2041,7 @@
         <v>0.5498332070708163</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.5361370790624607</v>
+        <v>0.536137079062461</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2015445259461149</v>
+        <v>0.2002623290195406</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4255712652468177</v>
+        <v>0.4365213691092153</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2701262301742736</v>
+        <v>0.2792394816479719</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.09161110701103702</v>
+        <v>0.09777950649987302</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3793371583617192</v>
+        <v>0.3873849644193697</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.610103861705939</v>
+        <v>0.6096136793559408</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1957087381001382</v>
+        <v>0.1941683307390137</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.435497281111035</v>
+        <v>0.4478148550383818</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4319951337617087</v>
+        <v>0.433920541195961</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.440106445103599</v>
+        <v>0.4454140264436596</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6943531455870917</v>
+        <v>0.6971310418259721</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5246892395515824</v>
+        <v>0.5250678779864902</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.405264892736608</v>
+        <v>0.4152173562797718</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7366864988710391</v>
+        <v>0.7432141869957767</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9851144417182297</v>
+        <v>0.9942209856180643</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3907134135160951</v>
+        <v>0.384780650957285</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6585429271038983</v>
+        <v>0.6654485698911439</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6513674839400877</v>
+        <v>0.6478378193773831</v>
       </c>
     </row>
     <row r="46">
